--- a/reference/c test run/ntt.xlsx
+++ b/reference/c test run/ntt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/ntt-for-hps-integration/reference/c test run/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6FD18C-BFE7-FD42-AC64-34AABBA4A844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01FF5F0-9078-CD49-BA16-CEBC7CA63BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15160" activeTab="2" xr2:uid="{44A39954-9E6E-8A40-A5FD-62DC74BF3651}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27040" windowHeight="15160" activeTab="2" xr2:uid="{44A39954-9E6E-8A40-A5FD-62DC74BF3651}"/>
   </bookViews>
   <sheets>
     <sheet name="Zetas" sheetId="2" r:id="rId1"/>
@@ -13025,8 +13025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39691AA-4487-CB42-B571-2F1915C50E33}">
   <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18676,7 +18676,7 @@
   <dimension ref="A1:N897"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K770" sqref="K770"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
